--- a/MemberUpload - Dubaicare.xlsx
+++ b/MemberUpload - Dubaicare.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlgoSpring\python\DubaiIns\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9834F6-6828-4AB2-AE4C-BCC11A9604A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="loader" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="loader"/>
+    <sheet r:id="rId2" sheetId="2" name="Sheet2"/>
+    <sheet r:id="rId3" sheetId="3" name="Sheet3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">loader!$A$1:$A$62</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -84,9 +78,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd-mmm-yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -124,17 +118,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEE8"/>
+        <fgColor rgb="FFb7dee8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFf2f2f2"/>
       </patternFill>
     </fill>
   </fills>
@@ -166,49 +160,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -219,10 +210,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -260,71 +251,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -352,7 +343,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -375,11 +366,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -388,13 +379,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -404,7 +395,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -413,7 +404,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -422,7 +413,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -430,10 +421,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -498,28 +489,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="17.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -565,7 +554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -588,7 +577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -611,7 +600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -634,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -657,7 +646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -680,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -703,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -726,7 +715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -749,7 +738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -772,7 +761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -795,7 +784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -818,7 +807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -841,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -864,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -887,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -910,7 +899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -933,7 +922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -956,7 +945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -979,7 +968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1002,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -1025,7 +1014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -1048,7 +1037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1071,7 +1060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -1232,7 +1221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -1278,7 +1267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -1393,7 +1382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -1439,7 +1428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -1485,7 +1474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
@@ -1508,7 +1497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -1554,7 +1543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -1577,7 +1566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
@@ -1600,7 +1589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +1635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3" t="s">
         <v>7</v>
       </c>
@@ -1669,7 +1658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
@@ -1692,7 +1681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="3" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -1738,7 +1727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +1773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
@@ -1807,7 +1796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
@@ -1830,7 +1819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
@@ -1853,7 +1842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -1876,7 +1865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="3" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +1888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -1922,7 +1911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.25">
       <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
@@ -1951,7 +1940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1966,7 +1955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
